--- a/s04_estadistica_descriptiva/data/b03_cerveza.xlsx
+++ b/s04_estadistica_descriptiva/data/b03_cerveza.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adanr\Desktop\AMD\AMD01_Preparacion_de_datos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adanr\Desktop\AMD\AMD Material del curso\s04_estadistica_descriptiva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4E7A05-F5F7-42D3-BEEB-5C1359EF4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66912EF-D117-41BC-BED2-93AF330BBF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="930" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13665" yWindow="0" windowWidth="16080" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base 11 Cerveza" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Cerveza</t>
   </si>
@@ -76,9 +89,6 @@
     <t>Victoria</t>
   </si>
   <si>
-    <t>Cerveza tipo Viena</t>
-  </si>
-  <si>
     <t>SINGHA</t>
   </si>
   <si>
@@ -94,9 +104,6 @@
     <t>Lucky Buddha</t>
   </si>
   <si>
-    <t>Cerveza de Malta</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -106,9 +113,6 @@
     <t>LEON</t>
   </si>
   <si>
-    <t>Cerveza Negra</t>
-  </si>
-  <si>
     <t>SAPPORO</t>
   </si>
   <si>
@@ -130,9 +134,6 @@
     <t>DIA DE MUERTOS</t>
   </si>
   <si>
-    <t>Cerveza PALE ALE</t>
-  </si>
-  <si>
     <t>SCHLOSS Eggenberg NESSIE</t>
   </si>
   <si>
@@ -181,15 +182,9 @@
     <t>Heineken Lager</t>
   </si>
   <si>
-    <t>Cerveza Premium</t>
-  </si>
-  <si>
     <t>Hofbräu Original</t>
   </si>
   <si>
-    <t>Cerveza clara de Malta</t>
-  </si>
-  <si>
     <t>Alemania</t>
   </si>
   <si>
@@ -226,21 +221,12 @@
     <t>Matilda</t>
   </si>
   <si>
-    <t>Cerveza ambar</t>
-  </si>
-  <si>
     <t>Osadía</t>
   </si>
   <si>
-    <t>Cerveza Ale oscura</t>
-  </si>
-  <si>
     <t>DELIRIUM nocturnum HUYGHE</t>
   </si>
   <si>
-    <t>Cerveza de malta</t>
-  </si>
-  <si>
     <t>GOUDEN CAROLUS classic</t>
   </si>
   <si>
@@ -262,13 +248,19 @@
     <t>KLOSTER LIGHT</t>
   </si>
   <si>
-    <t>Cerveza de barril</t>
-  </si>
-  <si>
     <t>TROPICAL LIGHT</t>
   </si>
   <si>
     <t>TECATE LIGHT</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Cerveza ámbar</t>
   </si>
 </sst>
 </file>
@@ -615,7 +607,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,8 +664,8 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>34</v>
@@ -698,8 +690,8 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,8 +716,8 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>34</v>
@@ -750,8 +742,8 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>35</v>
@@ -776,8 +768,8 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2">
         <v>35</v>
@@ -802,16 +794,16 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>37</v>
@@ -826,18 +818,18 @@
         <v>10.91</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>38</v>
@@ -854,16 +846,16 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>39</v>
@@ -880,16 +872,16 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>39</v>
@@ -904,15 +896,15 @@
         <v>12.12</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -932,16 +924,16 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
+      <c r="H12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2">
         <v>39</v>
@@ -958,16 +950,16 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>39</v>
@@ -982,18 +974,18 @@
         <v>9.23</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2">
         <v>40</v>
@@ -1010,16 +1002,16 @@
       <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>42</v>
@@ -1034,18 +1026,18 @@
         <v>22.12</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>42</v>
@@ -1060,18 +1052,18 @@
         <v>22.12</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>43</v>
@@ -1088,16 +1080,16 @@
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>43</v>
@@ -1112,18 +1104,18 @@
         <v>17.88</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>46</v>
@@ -1138,18 +1130,18 @@
         <v>15.98</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2">
         <v>46</v>
@@ -1164,18 +1156,18 @@
         <v>8.15</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>47</v>
@@ -1190,15 +1182,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1216,15 +1208,15 @@
         <v>3.17</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1242,15 +1234,15 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1268,15 +1260,15 @@
         <v>3.07</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1294,15 +1286,15 @@
         <v>4.79</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1322,16 +1314,16 @@
       <c r="G27" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
         <v>38</v>
@@ -1346,18 +1338,18 @@
         <v>11.21</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
         <v>38</v>
@@ -1374,16 +1366,16 @@
       <c r="G29" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <v>40</v>
@@ -1400,16 +1392,16 @@
       <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
         <v>40</v>
@@ -1424,15 +1416,15 @@
         <v>10.8</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1450,15 +1442,15 @@
         <v>6.4</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1478,16 +1470,16 @@
       <c r="G33" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2">
         <v>41</v>
@@ -1502,18 +1494,18 @@
         <v>11.8</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2">
         <v>42</v>
@@ -1528,18 +1520,18 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
         <v>42</v>
@@ -1556,13 +1548,13 @@
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1582,16 +1574,16 @@
       <c r="G37" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2">
         <v>57</v>
@@ -1606,18 +1598,18 @@
         <v>10.4</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
         <v>58</v>
@@ -1632,18 +1624,18 @@
         <v>16.64</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
         <v>58</v>
@@ -1658,18 +1650,18 @@
         <v>11.83</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
         <v>58</v>
@@ -1686,16 +1678,16 @@
       <c r="G41" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="1">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
         <v>59</v>
@@ -1710,18 +1702,18 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
         <v>77</v>
@@ -1736,18 +1728,18 @@
         <v>15.45</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
         <v>16</v>
@@ -1762,18 +1754,18 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
         <v>24</v>
@@ -1788,15 +1780,15 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -1814,15 +1806,15 @@
         <v>3.07</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -1842,13 +1834,13 @@
       <c r="G47" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -1868,16 +1860,16 @@
       <c r="G48" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="1">
-        <v>0</v>
+      <c r="H48" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -1894,13 +1886,13 @@
       <c r="G49" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="1">
-        <v>0</v>
+      <c r="H49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -1920,16 +1912,16 @@
       <c r="G50" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="1">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
         <v>29</v>
@@ -1946,8 +1938,8 @@
       <c r="G51" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="1">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
